--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java_Workspace\PageobjectWithFactories\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java_Workspace\PageobjectWithFactories\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BDB74F-B1C6-4764-A1DB-660BB4C8E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594FF08-DD91-4428-9B68-D220A17F2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="validateAddEmployeeTest" sheetId="2" r:id="rId2"/>
+    <sheet name="validateAddSkill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -46,6 +48,39 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Ntest</t>
+  </si>
+  <si>
+    <t>Mtest</t>
+  </si>
+  <si>
+    <t>skillName</t>
+  </si>
+  <si>
+    <t>skillDesc</t>
+  </si>
+  <si>
+    <t>Sys lang</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ASSEMBLY</t>
+  </si>
+  <si>
+    <t>CHEM</t>
   </si>
 </sst>
 </file>
@@ -365,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,4 +447,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815A2169-5AB0-4CA1-9E20-BE83F94D7992}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB2CA0C-4A32-4DF2-AEB2-704BB2BB97FB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>